--- a/Excel Documents/Examples.xlsx
+++ b/Excel Documents/Examples.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelkolb/Documents/PhD/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelkolb/Documents/PhD/Excel/Excel Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sum, Average, ..." sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1892,7 +1892,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
